--- a/biology/Médecine/Pâleur/Pâleur.xlsx
+++ b/biology/Médecine/Pâleur/Pâleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A2leur</t>
+          <t>Pâleur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pâleur est une couleur pâle de la peau ou des muqueuses pouvant être causée par une maladie, un choc émotionnel ou stress, une stimulation, manque d'exposition à la lumière du soleil, anémie ou génétique, et due à un taux réduit d'oxyhémoglobine. La pâleur est plus exposée sur le visage et sur la paume des mains. Cela peut se développer soudainement ou au fur et à mesure, en fonction la cause.
 La pâleur n'est significativement pas clinique à moins qu'elle ne soit généralisée (lèvres, langue, paumes, bouche et autres régions muqueuses). Elle est distinguée par des symptômes similaires tels que l'hypopigmentation (perte du pigment de la peau).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A2leur</t>
+          <t>Pâleur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Causes possibles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Maux de tête intense ou migraine
 Génétique naturelle
@@ -538,7 +552,7 @@
 Agrypnie
 dépression
 Phéochromocytome
-Hautes doses ou utilisation chronique d'amphétamines[1]
+Hautes doses ou utilisation chronique d'amphétamines
 Réaction à l'éthanol et/ou autres drogues comme le cannabis
 Saturnisme</t>
         </is>
